--- a/data/lists/names_db.xlsx
+++ b/data/lists/names_db.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e1426744\Desktop\AutoQue4compile\data\lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e1426744\Documents\GitHub\AutoQueue\data\lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A97FF8B-A463-4225-A931-6934BF597C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69015B5-4466-4C5A-9BF1-74F6D743D67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4D08BEDA-EFF4-4C40-B720-EFB9AE920BC1}"/>
+    <workbookView xWindow="28695" yWindow="-11250" windowWidth="29040" windowHeight="15990" xr2:uid="{4D08BEDA-EFF4-4C40-B720-EFB9AE920BC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>Salazar Brenes, Alberto</t>
   </si>
@@ -177,9 +177,6 @@
     <t>Eladio</t>
   </si>
   <si>
-    <t>Jorge</t>
-  </si>
-  <si>
     <t>Roberto</t>
   </si>
   <si>
@@ -298,6 +295,63 @@
   </si>
   <si>
     <t>Ana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauricio </t>
+  </si>
+  <si>
+    <t>Morales, Jorge</t>
+  </si>
+  <si>
+    <t>Castro, Keily</t>
+  </si>
+  <si>
+    <t>Quesada, Yerlin</t>
+  </si>
+  <si>
+    <t>Portillo, Mauricio</t>
+  </si>
+  <si>
+    <t>Arroyo, Valeria</t>
+  </si>
+  <si>
+    <t>González, Ximena</t>
+  </si>
+  <si>
+    <t>Diaz, Eduardo</t>
+  </si>
+  <si>
+    <t>Romero, Fiorella</t>
+  </si>
+  <si>
+    <t>Fiorella</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t>Ximena</t>
+  </si>
+  <si>
+    <t>Valeria</t>
+  </si>
+  <si>
+    <t>Keily</t>
+  </si>
+  <si>
+    <t>Yer</t>
+  </si>
+  <si>
+    <t>Morales</t>
+  </si>
+  <si>
+    <t>Salas</t>
+  </si>
+  <si>
+    <t>Mora, Walter</t>
+  </si>
+  <si>
+    <t>Walter</t>
   </si>
 </sst>
 </file>
@@ -665,27 +719,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E97E6A-4030-4CF1-8EA3-075FDC93376F}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
         <v>72</v>
       </c>
-      <c r="B1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,7 +747,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -701,7 +755,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -709,39 +763,39 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -749,7 +803,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -757,55 +811,55 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -813,23 +867,23 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -837,7 +891,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -845,7 +899,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -853,7 +907,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -861,7 +915,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
@@ -869,31 +923,31 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
@@ -901,132 +955,204 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
         <v>80</v>
       </c>
-      <c r="B35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
         <v>82</v>
       </c>
-      <c r="B42" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
         <v>84</v>
       </c>
-      <c r="B43" t="s">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
         <v>86</v>
       </c>
-      <c r="B44" t="s">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/data/lists/names_db.xlsx
+++ b/data/lists/names_db.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e1426744\Documents\GitHub\AutoQueue\data\lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e1426744\Desktop\AutoQue4compile\data\lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69015B5-4466-4C5A-9BF1-74F6D743D67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203BB9E6-0204-4CE9-AED4-07DBB232E5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="-11250" windowWidth="29040" windowHeight="15990" xr2:uid="{4D08BEDA-EFF4-4C40-B720-EFB9AE920BC1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{4D08BEDA-EFF4-4C40-B720-EFB9AE920BC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
   <si>
     <t>Salazar Brenes, Alberto</t>
   </si>
@@ -306,9 +306,6 @@
     <t>Castro, Keily</t>
   </si>
   <si>
-    <t>Quesada, Yerlin</t>
-  </si>
-  <si>
     <t>Portillo, Mauricio</t>
   </si>
   <si>
@@ -339,9 +336,6 @@
     <t>Keily</t>
   </si>
   <si>
-    <t>Yer</t>
-  </si>
-  <si>
     <t>Morales</t>
   </si>
   <si>
@@ -352,6 +346,12 @@
   </si>
   <si>
     <t>Walter</t>
+  </si>
+  <si>
+    <t>Quesada Mora, Yerlin</t>
+  </si>
+  <si>
+    <t>Yerlin</t>
   </si>
 </sst>
 </file>
@@ -719,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E97E6A-4030-4CF1-8EA3-075FDC93376F}">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -824,7 +824,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -1085,7 +1085,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B45" t="s">
         <v>87</v>
@@ -1093,10 +1093,10 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -1104,15 +1104,15 @@
         <v>88</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -1120,39 +1120,47 @@
         <v>89</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" t="s">
         <v>95</v>
       </c>
-      <c r="B53" t="s">
-        <v>96</v>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
